--- a/html/resources/aoiConditions/train1P1Block7.xlsx
+++ b/html/resources/aoiConditions/train1P1Block7.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/10_tokiti1.wav</t>
   </si>
   <si>
-    <t>pngimages/15_barrel.png</t>
+    <t>trainingaudio/13_kopopi1.wav</t>
   </si>
   <si>
     <t>pngimages/10_backpack.png</t>
+  </si>
+  <si>
+    <t>pngimages/13_toast.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train1P1Block7.xlsx
+++ b/html/resources/aoiConditions/train1P1Block7.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
+    <t>trainingaudio/10_tokiti1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.mp3</t>
   </si>
   <si>
     <t>pngimages/10_backpack.png</t>

--- a/html/resources/aoiConditions/train1P1Block7.xlsx
+++ b/html/resources/aoiConditions/train1P1Block7.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/10_tokiti1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.mp3</t>
+    <t>trainingaudio/10_tokiti1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.ogg</t>
   </si>
   <si>
     <t>pngimages/10_backpack.png</t>

--- a/html/resources/aoiConditions/train1P1Block7.xlsx
+++ b/html/resources/aoiConditions/train1P1Block7.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/10_tokiti1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.ogg</t>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
   </si>
   <si>
     <t>pngimages/10_backpack.png</t>
